--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dcn-Tlr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,7 +82,13 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Tlr4</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H2">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J2">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N2">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P2">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q2">
-        <v>6.409152695009429</v>
+        <v>14.14209969870134</v>
       </c>
       <c r="R2">
-        <v>6.409152695009429</v>
+        <v>127.278897288312</v>
       </c>
       <c r="S2">
-        <v>6.237212021807023E-05</v>
+        <v>0.0001261930510304226</v>
       </c>
       <c r="T2">
-        <v>6.237212021807023E-05</v>
+        <v>0.0001261930510304226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H3">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J3">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N3">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P3">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q3">
-        <v>14.99206242983422</v>
+        <v>21.11627275244667</v>
       </c>
       <c r="R3">
-        <v>14.99206242983422</v>
+        <v>190.04645477202</v>
       </c>
       <c r="S3">
-        <v>0.0001458986491176207</v>
+        <v>0.000188425123694081</v>
       </c>
       <c r="T3">
-        <v>0.0001458986491176207</v>
+        <v>0.000188425123694081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H4">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J4">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N4">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P4">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q4">
-        <v>50.21316664159271</v>
+        <v>81.37440837220566</v>
       </c>
       <c r="R4">
-        <v>50.21316664159271</v>
+        <v>732.3696753498511</v>
       </c>
       <c r="S4">
-        <v>0.0004886607973528405</v>
+        <v>0.0007261216571134193</v>
       </c>
       <c r="T4">
-        <v>0.0004886607973528405</v>
+        <v>0.0007261216571134194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H5">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J5">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N5">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P5">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q5">
-        <v>41.67467669796541</v>
+        <v>58.73731752937767</v>
       </c>
       <c r="R5">
-        <v>41.67467669796541</v>
+        <v>528.635857764399</v>
       </c>
       <c r="S5">
-        <v>0.0004055665497061284</v>
+        <v>0.0005241259407226183</v>
       </c>
       <c r="T5">
-        <v>0.0004055665497061284</v>
+        <v>0.0005241259407226184</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H6">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I6">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J6">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N6">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P6">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q6">
-        <v>103.7089175035488</v>
+        <v>153.350229072271</v>
       </c>
       <c r="R6">
-        <v>103.7089175035488</v>
+        <v>1380.152061650439</v>
       </c>
       <c r="S6">
-        <v>0.00100926680608719</v>
+        <v>0.001368377659268033</v>
       </c>
       <c r="T6">
-        <v>0.00100926680608719</v>
+        <v>0.001368377659268033</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.11321500761442</v>
+        <v>2.975819</v>
       </c>
       <c r="H7">
-        <v>2.11321500761442</v>
+        <v>8.927457</v>
       </c>
       <c r="I7">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="J7">
-        <v>0.002181811283360406</v>
+        <v>0.003039595464778879</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N7">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P7">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q7">
-        <v>7.197732272540835</v>
+        <v>11.91857270159967</v>
       </c>
       <c r="R7">
-        <v>7.197732272540835</v>
+        <v>107.267154314397</v>
       </c>
       <c r="S7">
-        <v>7.004636087855611E-05</v>
+        <v>0.000106352032950304</v>
       </c>
       <c r="T7">
-        <v>7.004636087855611E-05</v>
+        <v>0.000106352032950304</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H8">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J8">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N8">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P8">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q8">
-        <v>2899.072279140117</v>
+        <v>4555.602076067704</v>
       </c>
       <c r="R8">
-        <v>2899.072279140117</v>
+        <v>41000.41868460934</v>
       </c>
       <c r="S8">
-        <v>0.02821297811428351</v>
+        <v>0.04065063445368743</v>
       </c>
       <c r="T8">
-        <v>0.02821297811428351</v>
+        <v>0.04065063445368743</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H9">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J9">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N9">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P9">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q9">
-        <v>6781.406944995005</v>
+        <v>6802.196140555542</v>
       </c>
       <c r="R9">
-        <v>6781.406944995005</v>
+        <v>61219.76526499988</v>
       </c>
       <c r="S9">
-        <v>0.0659947967147415</v>
+        <v>0.06069748502500623</v>
       </c>
       <c r="T9">
-        <v>0.0659947967147415</v>
+        <v>0.06069748502500623</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H10">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I10">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J10">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N10">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P10">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q10">
-        <v>22713.08024410713</v>
+        <v>26213.18132506472</v>
       </c>
       <c r="R10">
-        <v>22713.08024410713</v>
+        <v>235918.6319255825</v>
       </c>
       <c r="S10">
-        <v>0.2210374816957051</v>
+        <v>0.2339059544975051</v>
       </c>
       <c r="T10">
-        <v>0.2210374816957051</v>
+        <v>0.2339059544975051</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H11">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I11">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J11">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N11">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P11">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q11">
-        <v>18850.83812268579</v>
+        <v>18921.08324650356</v>
       </c>
       <c r="R11">
-        <v>18850.83812268579</v>
+        <v>170289.749218532</v>
       </c>
       <c r="S11">
-        <v>0.1834511982395216</v>
+        <v>0.1688369672500726</v>
       </c>
       <c r="T11">
-        <v>0.1834511982395216</v>
+        <v>0.1688369672500726</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H12">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I12">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J12">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N12">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P12">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q12">
-        <v>46910.98217526945</v>
+        <v>49398.79061885331</v>
       </c>
       <c r="R12">
-        <v>46910.98217526945</v>
+        <v>444589.1155696798</v>
       </c>
       <c r="S12">
-        <v>0.4565248417410894</v>
+        <v>0.4407962210857957</v>
       </c>
       <c r="T12">
-        <v>0.4565248417410894</v>
+        <v>0.4407962210857957</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>955.877218092839</v>
+        <v>958.6021526666667</v>
       </c>
       <c r="H13">
-        <v>955.877218092839</v>
+        <v>2875.806458</v>
       </c>
       <c r="I13">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="J13">
-        <v>0.9869055881334357</v>
+        <v>0.9791464990891148</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N13">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P13">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q13">
-        <v>3255.772969841005</v>
+        <v>3839.336145265424</v>
       </c>
       <c r="R13">
-        <v>3255.772969841005</v>
+        <v>34554.02530738882</v>
       </c>
       <c r="S13">
-        <v>0.03168429162809453</v>
+        <v>0.03425923677704783</v>
       </c>
       <c r="T13">
-        <v>0.03168429162809453</v>
+        <v>0.03425923677704783</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H14">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I14">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J14">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N14">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O14">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P14">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q14">
-        <v>1.555029471606814</v>
+        <v>2.472540425041778</v>
       </c>
       <c r="R14">
-        <v>1.555029471606814</v>
+        <v>22.252863825376</v>
       </c>
       <c r="S14">
-        <v>1.513312129717636E-05</v>
+        <v>2.206301940161916E-05</v>
       </c>
       <c r="T14">
-        <v>1.513312129717636E-05</v>
+        <v>2.206301940161916E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H15">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I15">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J15">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N15">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O15">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P15">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q15">
-        <v>3.637469729300493</v>
+        <v>3.691873138995555</v>
       </c>
       <c r="R15">
-        <v>3.637469729300493</v>
+        <v>33.22685825096</v>
       </c>
       <c r="S15">
-        <v>3.539886004310402E-05</v>
+        <v>3.294339209543935E-05</v>
       </c>
       <c r="T15">
-        <v>3.539886004310402E-05</v>
+        <v>3.294339209543935E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H16">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I16">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J16">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N16">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O16">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P16">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q16">
-        <v>12.18303849293232</v>
+        <v>14.22713165306089</v>
       </c>
       <c r="R16">
-        <v>12.18303849293232</v>
+        <v>128.044184877548</v>
       </c>
       <c r="S16">
-        <v>0.0001185619968290417</v>
+        <v>0.0001269518097709438</v>
       </c>
       <c r="T16">
-        <v>0.0001185619968290417</v>
+        <v>0.0001269518097709438</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H17">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I17">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J17">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N17">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O17">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P17">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q17">
-        <v>10.11137564806086</v>
+        <v>10.26936559238356</v>
       </c>
       <c r="R17">
-        <v>10.11137564806086</v>
+        <v>92.42429033145201</v>
       </c>
       <c r="S17">
-        <v>9.840114091555308E-05</v>
+        <v>9.163579693676807E-05</v>
       </c>
       <c r="T17">
-        <v>9.840114091555308E-05</v>
+        <v>9.163579693676807E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H18">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I18">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J18">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N18">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O18">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P18">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q18">
-        <v>25.16251848891562</v>
+        <v>26.81105696104133</v>
       </c>
       <c r="R18">
-        <v>25.16251848891562</v>
+        <v>241.299512649372</v>
       </c>
       <c r="S18">
-        <v>0.0002448747444263771</v>
+        <v>0.0002392409296601799</v>
       </c>
       <c r="T18">
-        <v>0.0002448747444263771</v>
+        <v>0.0002392409296601799</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.512721692407331</v>
+        <v>0.5202786666666667</v>
       </c>
       <c r="H19">
-        <v>0.512721692407331</v>
+        <v>1.560836</v>
       </c>
       <c r="I19">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="J19">
-        <v>0.0005293649579844697</v>
+        <v>0.0005314290538575102</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.40605771140451</v>
+        <v>4.005140333333333</v>
       </c>
       <c r="N19">
-        <v>3.40605771140451</v>
+        <v>12.015421</v>
       </c>
       <c r="O19">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="P19">
-        <v>0.03210468357770675</v>
+        <v>0.03498887736300817</v>
       </c>
       <c r="Q19">
-        <v>1.746359674228361</v>
+        <v>2.083789072439556</v>
       </c>
       <c r="R19">
-        <v>1.746359674228361</v>
+        <v>18.754101651956</v>
       </c>
       <c r="S19">
-        <v>1.699509447321743E-05</v>
+        <v>1.859410599255989E-05</v>
       </c>
       <c r="T19">
-        <v>1.699509447321743E-05</v>
+        <v>1.859410599255989E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H20">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I20">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J20">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.03289190731455</v>
+        <v>4.752338666666668</v>
       </c>
       <c r="N20">
-        <v>3.03289190731455</v>
+        <v>14.257016</v>
       </c>
       <c r="O20">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="P20">
-        <v>0.02858731215378319</v>
+        <v>0.04151639666945049</v>
       </c>
       <c r="Q20">
-        <v>30.50114512552953</v>
+        <v>6.80652913476889</v>
       </c>
       <c r="R20">
-        <v>30.50114512552953</v>
+        <v>61.25876221292</v>
       </c>
       <c r="S20">
-        <v>0.0002968287979844325</v>
+        <v>6.073614928077651E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002968287979844325</v>
+        <v>6.073614928077652E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H21">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I21">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J21">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.09443306800975</v>
+        <v>7.095953333333333</v>
       </c>
       <c r="N21">
-        <v>7.09443306800975</v>
+        <v>21.28786</v>
       </c>
       <c r="O21">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="P21">
-        <v>0.06687042560936295</v>
+        <v>0.06199019766855336</v>
       </c>
       <c r="Q21">
-        <v>71.34719574701901</v>
+        <v>10.16316733507778</v>
       </c>
       <c r="R21">
-        <v>71.34719574701901</v>
+        <v>91.46850601569999</v>
       </c>
       <c r="S21">
-        <v>0.0006943313854607287</v>
+        <v>9.068816664218311E-05</v>
       </c>
       <c r="T21">
-        <v>0.0006943313854607287</v>
+        <v>9.068816664218312E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H22">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I22">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J22">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>23.7615038984025</v>
+        <v>27.34521433333333</v>
       </c>
       <c r="N22">
-        <v>23.7615038984025</v>
+        <v>82.03564300000001</v>
       </c>
       <c r="O22">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="P22">
-        <v>0.2239702402676228</v>
+        <v>0.238887597223811</v>
       </c>
       <c r="Q22">
-        <v>238.9643617229132</v>
+        <v>39.16513765355944</v>
       </c>
       <c r="R22">
-        <v>238.9643617229132</v>
+        <v>352.486238882035</v>
       </c>
       <c r="S22">
-        <v>0.002325535777735755</v>
+        <v>0.000349479095737319</v>
       </c>
       <c r="T22">
-        <v>0.002325535777735755</v>
+        <v>0.000349479095737319</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H23">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I23">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J23">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.7209827432616</v>
+        <v>19.73820233333333</v>
       </c>
       <c r="N23">
-        <v>19.7209827432616</v>
+        <v>59.214607</v>
       </c>
       <c r="O23">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="P23">
-        <v>0.1858852563460386</v>
+        <v>0.1724327946912327</v>
       </c>
       <c r="Q23">
-        <v>198.3297048007524</v>
+        <v>28.27000739491277</v>
       </c>
       <c r="R23">
-        <v>198.3297048007524</v>
+        <v>254.430066554215</v>
       </c>
       <c r="S23">
-        <v>0.001930090415895249</v>
+        <v>0.0002522594637162863</v>
       </c>
       <c r="T23">
-        <v>0.001930090415895249</v>
+        <v>0.0002522594637162864</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>27</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>10.0567860832655</v>
+        <v>1.432248333333333</v>
       </c>
       <c r="H24">
-        <v>10.0567860832655</v>
+        <v>4.296745</v>
       </c>
       <c r="I24">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="J24">
-        <v>0.01038323562521951</v>
+        <v>0.001462943659690696</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>49.0763680599753</v>
+        <v>51.532109</v>
       </c>
       <c r="N24">
-        <v>49.0763680599753</v>
+        <v>154.596327</v>
       </c>
       <c r="O24">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="P24">
-        <v>0.4625820820454858</v>
+        <v>0.4501841363839443</v>
       </c>
       <c r="Q24">
-        <v>493.5505353227751</v>
+        <v>73.80677722840166</v>
       </c>
       <c r="R24">
-        <v>493.5505353227751</v>
+        <v>664.2609950556149</v>
       </c>
       <c r="S24">
-        <v>0.004803098753882905</v>
+        <v>0.0006585940280162229</v>
       </c>
       <c r="T24">
-        <v>0.004803098753882905</v>
+        <v>0.000658594028016223</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.432248333333333</v>
+      </c>
+      <c r="H25">
+        <v>4.296745</v>
+      </c>
+      <c r="I25">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="J25">
+        <v>0.001462943659690696</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N25">
+        <v>12.015421</v>
+      </c>
+      <c r="O25">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P25">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q25">
+        <v>5.736355567182777</v>
+      </c>
+      <c r="R25">
+        <v>51.62720010464499</v>
+      </c>
+      <c r="S25">
+        <v>5.118675629790812E-05</v>
+      </c>
+      <c r="T25">
+        <v>5.118675629790813E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H26">
+        <v>2.293185</v>
+      </c>
+      <c r="I26">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J26">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.752338666666668</v>
+      </c>
+      <c r="N26">
+        <v>14.257016</v>
+      </c>
+      <c r="O26">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="P26">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="Q26">
+        <v>3.632663915106667</v>
+      </c>
+      <c r="R26">
+        <v>32.69397523596</v>
+      </c>
+      <c r="S26">
+        <v>3.241505523098008E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.241505523098008E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H27">
+        <v>2.293185</v>
+      </c>
+      <c r="I27">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J27">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N27">
+        <v>21.28786</v>
+      </c>
+      <c r="O27">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="P27">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="Q27">
+        <v>5.424111248233332</v>
+      </c>
+      <c r="R27">
+        <v>48.81700123409999</v>
+      </c>
+      <c r="S27">
+        <v>4.840053189597117E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.840053189597118E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H28">
+        <v>2.293185</v>
+      </c>
+      <c r="I28">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J28">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>27.34521433333333</v>
+      </c>
+      <c r="N28">
+        <v>82.03564300000001</v>
+      </c>
+      <c r="O28">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="P28">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="Q28">
+        <v>20.90254511032833</v>
+      </c>
+      <c r="R28">
+        <v>188.122905992955</v>
+      </c>
+      <c r="S28">
+        <v>0.0001865179851628113</v>
+      </c>
+      <c r="T28">
+        <v>0.0001865179851628114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H29">
+        <v>2.293185</v>
+      </c>
+      <c r="I29">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J29">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>19.73820233333333</v>
+      </c>
+      <c r="N29">
+        <v>59.214607</v>
+      </c>
+      <c r="O29">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="P29">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="Q29">
+        <v>15.08778317258833</v>
+      </c>
+      <c r="R29">
+        <v>135.790048553295</v>
+      </c>
+      <c r="S29">
+        <v>0.0001346315916588562</v>
+      </c>
+      <c r="T29">
+        <v>0.0001346315916588562</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H30">
+        <v>2.293185</v>
+      </c>
+      <c r="I30">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J30">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>51.532109</v>
+      </c>
+      <c r="N30">
+        <v>154.596327</v>
+      </c>
+      <c r="O30">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="P30">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="Q30">
+        <v>39.390886459055</v>
+      </c>
+      <c r="R30">
+        <v>354.517978131495</v>
+      </c>
+      <c r="S30">
+        <v>0.0003514935017405925</v>
+      </c>
+      <c r="T30">
+        <v>0.0003514935017405926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.7643949999999999</v>
+      </c>
+      <c r="H31">
+        <v>2.293185</v>
+      </c>
+      <c r="I31">
+        <v>0.0007807771827855292</v>
+      </c>
+      <c r="J31">
+        <v>0.0007807771827855293</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N31">
+        <v>12.015421</v>
+      </c>
+      <c r="O31">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P31">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q31">
+        <v>3.061509245098333</v>
+      </c>
+      <c r="R31">
+        <v>27.553583205885</v>
+      </c>
+      <c r="S31">
+        <v>2.73185170963179E-05</v>
+      </c>
+      <c r="T31">
+        <v>2.73185170963179E-05</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.723214</v>
+      </c>
+      <c r="H32">
+        <v>44.169642</v>
+      </c>
+      <c r="I32">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J32">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>4.752338666666668</v>
+      </c>
+      <c r="N32">
+        <v>14.257016</v>
+      </c>
+      <c r="O32">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="P32">
+        <v>0.04151639666945049</v>
+      </c>
+      <c r="Q32">
+        <v>69.96969918980801</v>
+      </c>
+      <c r="R32">
+        <v>629.7272927082721</v>
+      </c>
+      <c r="S32">
+        <v>0.0006243549408192613</v>
+      </c>
+      <c r="T32">
+        <v>0.0006243549408192613</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.723214</v>
+      </c>
+      <c r="H33">
+        <v>44.169642</v>
+      </c>
+      <c r="I33">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J33">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>7.095953333333333</v>
+      </c>
+      <c r="N33">
+        <v>21.28786</v>
+      </c>
+      <c r="O33">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="P33">
+        <v>0.06199019766855336</v>
+      </c>
+      <c r="Q33">
+        <v>104.47523946068</v>
+      </c>
+      <c r="R33">
+        <v>940.27715514612</v>
+      </c>
+      <c r="S33">
+        <v>0.0009322554292194604</v>
+      </c>
+      <c r="T33">
+        <v>0.0009322554292194604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.723214</v>
+      </c>
+      <c r="H34">
+        <v>44.169642</v>
+      </c>
+      <c r="I34">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J34">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>27.34521433333333</v>
+      </c>
+      <c r="N34">
+        <v>82.03564300000001</v>
+      </c>
+      <c r="O34">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="P34">
+        <v>0.238887597223811</v>
+      </c>
+      <c r="Q34">
+        <v>402.609442505534</v>
+      </c>
+      <c r="R34">
+        <v>3623.484982549807</v>
+      </c>
+      <c r="S34">
+        <v>0.003592572178521441</v>
+      </c>
+      <c r="T34">
+        <v>0.003592572178521441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="H25">
-        <v>10.0567860832655</v>
-      </c>
-      <c r="I25">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="J25">
-        <v>0.01038323562521951</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3.40605771140451</v>
-      </c>
-      <c r="N25">
-        <v>3.40605771140451</v>
-      </c>
-      <c r="O25">
-        <v>0.03210468357770675</v>
-      </c>
-      <c r="P25">
-        <v>0.03210468357770675</v>
-      </c>
-      <c r="Q25">
-        <v>34.25399379085201</v>
-      </c>
-      <c r="R25">
-        <v>34.25399379085201</v>
-      </c>
-      <c r="S25">
-        <v>0.0003333504942604446</v>
-      </c>
-      <c r="T25">
-        <v>0.0003333504942604446</v>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.723214</v>
+      </c>
+      <c r="H35">
+        <v>44.169642</v>
+      </c>
+      <c r="I35">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J35">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>19.73820233333333</v>
+      </c>
+      <c r="N35">
+        <v>59.214607</v>
+      </c>
+      <c r="O35">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="P35">
+        <v>0.1724327946912327</v>
+      </c>
+      <c r="Q35">
+        <v>290.609776928966</v>
+      </c>
+      <c r="R35">
+        <v>2615.487992360694</v>
+      </c>
+      <c r="S35">
+        <v>0.002593174648125583</v>
+      </c>
+      <c r="T35">
+        <v>0.002593174648125583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.723214</v>
+      </c>
+      <c r="H36">
+        <v>44.169642</v>
+      </c>
+      <c r="I36">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J36">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>51.532109</v>
+      </c>
+      <c r="N36">
+        <v>154.596327</v>
+      </c>
+      <c r="O36">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="P36">
+        <v>0.4501841363839443</v>
+      </c>
+      <c r="Q36">
+        <v>758.718268678326</v>
+      </c>
+      <c r="R36">
+        <v>6828.464418104934</v>
+      </c>
+      <c r="S36">
+        <v>0.006770209179463651</v>
+      </c>
+      <c r="T36">
+        <v>0.006770209179463651</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.723214</v>
+      </c>
+      <c r="H37">
+        <v>44.169642</v>
+      </c>
+      <c r="I37">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="J37">
+        <v>0.01503875554977265</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.005140333333333</v>
+      </c>
+      <c r="N37">
+        <v>12.015421</v>
+      </c>
+      <c r="O37">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="P37">
+        <v>0.03498887736300817</v>
+      </c>
+      <c r="Q37">
+        <v>58.968538227698</v>
+      </c>
+      <c r="R37">
+        <v>530.716844049282</v>
+      </c>
+      <c r="S37">
+        <v>0.0005261891736232538</v>
+      </c>
+      <c r="T37">
+        <v>0.0005261891736232538</v>
       </c>
     </row>
   </sheetData>
